--- a/doc/test/Tasks.xlsx
+++ b/doc/test/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDriveMirror\UNI\Thesis\Files\doc\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02D0EB-9257-4243-B7D5-7C7097862E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F094D68F-A0EB-4499-986E-5182C65B8993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Tasks</t>
   </si>
@@ -89,15 +89,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Complexity</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Quality Metrics</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>ROUGE</t>
   </si>
   <si>
-    <t>BLEU or Human</t>
-  </si>
-  <si>
     <t>BLEU</t>
   </si>
   <si>
@@ -122,7 +110,7 @@
     <t>Dataset</t>
   </si>
   <si>
-    <t>Sentiment</t>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -184,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,9 +193,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,24 +578,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="71.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -623,17 +607,14 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <f>ROW()-1</f>
         <v>1</v>
@@ -647,15 +628,14 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A7" si="0">ROW()-1</f>
         <v>2</v>
@@ -669,15 +649,14 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -691,17 +670,14 @@
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -715,15 +691,14 @@
       <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -737,15 +712,14 @@
       <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -759,16 +733,15 @@
       <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576 E1:E1048576 G1:G1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -791,20 +764,9 @@
       <formula>NOT(ISERROR(SEARCH("Yes",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7 E2:E7 G2:G7">
+  <conditionalFormatting sqref="C2:C7">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576 G1:G1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
